--- a/biology/Médecine/Plèvre/Plèvre.xlsx
+++ b/biology/Médecine/Plèvre/Plèvre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pl%C3%A8vre</t>
+          <t>Plèvre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En anatomie, la plèvre est une membrane séreuse délimitant un espace virtuel (c'est-à-dire vide dans les situations normales) situé entre les poumons en dedans et la cage thoracique en dehors.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pl%C3%A8vre</t>
+          <t>Plèvre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Anatomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On distingue la plèvre pariétale, située contre la paroi thoracique, de la plèvre viscérale, accolée aux poumons. Les deux cavités pleurales (droite et gauche) ne sont pas reliées entre elles.
 Les feuillets des deux plèvres se rejoignent par différents sinus pleuraux.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pl%C3%A8vre</t>
+          <t>Plèvre</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Physiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme toutes séreuses, elles ont un rôle pour diminuer les frottements occasionnés par les mouvements (respiratoire en l'occurrence). Elles sont tapissées par un épithélium sécrétant en petite quantité un liquide lubrifiant.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pl%C3%A8vre</t>
+          <t>Plèvre</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Exploration</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans les cas normaux, les plèvres sont fines et ne sont pas visualisables.
 Lorsque la cavité pleurale contient un liquide (épanchement), ce dernier peut être détecté, suivant son abondance :
@@ -593,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pl%C3%A8vre</t>
+          <t>Plèvre</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,7 +629,9 @@
           <t>Maladie de la plèvre</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La présence de liquides en quantité notable dans la cavité pleurale constitue un épanchement pleural qui peut être d'origines diverses :
 origine cardiaque dans le cas d'une insuffisance cardiaque ;
